--- a/DB구조.xlsx
+++ b/DB구조.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,30 @@
   </si>
   <si>
     <t>얼마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,7 +714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -704,12 +728,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -723,12 +747,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -740,6 +764,28 @@
       </c>
       <c r="D23" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/DB구조.xlsx
+++ b/DB구조.xlsx
@@ -90,131 +90,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>현재모금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브플젝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원플젝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여플젝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플젝번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이메일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원플젝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>목표금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재모금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">내용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐시내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플젝번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이메일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후원플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
+    <t>답변</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +582,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,37 +643,37 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -681,13 +681,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -703,15 +703,15 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,37 +719,37 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,35 +757,35 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/DB구조.xlsx
+++ b/DB구조.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +586,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,6 +652,9 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">

--- a/DB구조.xlsx
+++ b/DB구조.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>접근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직업군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서브플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐시내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변화량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,18 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>참여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,14 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>후원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후원플젝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목표금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +179,190 @@
   </si>
   <si>
     <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원플젝번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원플젝번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnum(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundgoal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superproject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moneychange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,12 +387,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,8 +415,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,220 +739,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB구조.xlsx
+++ b/DB구조.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>superproject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>funding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,6 +355,18 @@
   </si>
   <si>
     <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superproject(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inum(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,16 +936,16 @@
         <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -949,7 +953,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -969,16 +973,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -986,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1012,13 +1016,13 @@
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1027,7 +1031,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1047,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,16 +1059,16 @@
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,7 +1076,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1098,13 +1102,13 @@
         <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1113,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1136,13 +1140,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>62</v>
